--- a/Data/Assumption/Market_Transmission/Market2.xlsx
+++ b/Data/Assumption/Market_Transmission/Market2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>From</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>PowerFlowID</t>
+  </si>
+  <si>
+    <t>CommitTime</t>
+  </si>
+  <si>
+    <t>LifeTime</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>DiscountRate</t>
+  </si>
+  <si>
+    <t>USD/KW</t>
+  </si>
+  <si>
+    <t>USD/KW.Year</t>
   </si>
 </sst>
 </file>
@@ -423,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -436,9 +457,12 @@
     <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -454,8 +478,23 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -463,6 +502,17 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
